--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -3339,16 +3339,16 @@
         <v>20868</v>
       </c>
       <c r="H59">
-        <v>15949</v>
+        <v>16677</v>
       </c>
       <c r="I59">
-        <v>10898</v>
+        <v>10533</v>
       </c>
       <c r="J59">
-        <v>7171</v>
+        <v>6817</v>
       </c>
       <c r="K59">
-        <v>2518</v>
+        <v>2509</v>
       </c>
       <c r="L59">
         <v>119</v>

--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -3339,19 +3339,19 @@
         <v>20868</v>
       </c>
       <c r="H59">
-        <v>16677</v>
+        <v>16811</v>
       </c>
       <c r="I59">
-        <v>10533</v>
+        <v>10544</v>
       </c>
       <c r="J59">
-        <v>6817</v>
+        <v>6685</v>
       </c>
       <c r="K59">
-        <v>2509</v>
+        <v>2500</v>
       </c>
       <c r="L59">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M59">
         <v>8802</v>

--- a/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Suscripciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Serie</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3363,6 +3366,53 @@
         <v>4493</v>
       </c>
     </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60">
+        <v>50804</v>
+      </c>
+      <c r="C60">
+        <v>41620</v>
+      </c>
+      <c r="D60">
+        <v>19786</v>
+      </c>
+      <c r="E60">
+        <v>21834</v>
+      </c>
+      <c r="F60">
+        <v>4871</v>
+      </c>
+      <c r="G60">
+        <v>12862</v>
+      </c>
+      <c r="H60">
+        <v>9554</v>
+      </c>
+      <c r="I60">
+        <v>6717</v>
+      </c>
+      <c r="J60">
+        <v>5200</v>
+      </c>
+      <c r="K60">
+        <v>2082</v>
+      </c>
+      <c r="L60">
+        <v>335</v>
+      </c>
+      <c r="M60">
+        <v>9184</v>
+      </c>
+      <c r="N60">
+        <v>4805</v>
+      </c>
+      <c r="O60">
+        <v>4378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
